--- a/ws/the_project/danup/danup.xlsx
+++ b/ws/the_project/danup/danup.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="372">
   <si>
     <t xml:space="preserve">Course Url</t>
   </si>
@@ -52,12 +52,12 @@
     <t xml:space="preserve">Last Update</t>
   </si>
   <si>
+    <t xml:space="preserve">Language</t>
+  </si>
+  <si>
     <t xml:space="preserve">Subtitle</t>
   </si>
   <si>
-    <t xml:space="preserve">Language</t>
-  </si>
-  <si>
     <t xml:space="preserve">Size</t>
   </si>
   <si>
@@ -109,13 +109,13 @@
     <t xml:space="preserve">https://danup.ir/</t>
   </si>
   <si>
-    <t xml:space="preserve">آموزش برنامه نویسی وب</t>
+    <t xml:space="preserve">دسته: ASP.NET، آموزش برنامه نویسی، آموزش برنامه نویسی وب</t>
   </si>
   <si>
     <t xml:space="preserve">46 درس</t>
   </si>
   <si>
-    <t xml:space="preserve">available</t>
+    <t xml:space="preserve">موجود</t>
   </si>
   <si>
     <t xml:space="preserve">ما در این دوره به آموزش جامع Asp.net MVC می پردازیم. در این دوره سعی شده تا تمام مباحث به صورت کاملا عملی و با مثال های کاربردی ارائه شود. استفاده از MVC Asp.Net باعث می شود در هزینه و زمان بسیار صرفه جویی شود و در آخر محصولی بهتر و با سرعتی بیشتر داشته باشیم.</t>
@@ -148,7 +148,7 @@
     <t xml:space="preserve"> 1/38 گیگابایت</t>
   </si>
   <si>
-    <t xml:space="preserve">آموزش بازی سازی</t>
+    <t xml:space="preserve">دسته: آموزش بازی سازی، آموزش یونیتی</t>
   </si>
   <si>
     <t xml:space="preserve">24 درس</t>
@@ -181,6 +181,9 @@
     <t xml:space="preserve"> 1/29 گیگابایت</t>
   </si>
   <si>
+    <t xml:space="preserve">دسته: آموزش برنامه نویسی، آموزش سی شارپ</t>
+  </si>
+  <si>
     <t xml:space="preserve">25 درس</t>
   </si>
   <si>
@@ -211,6 +214,9 @@
     <t xml:space="preserve"> 515 مگابایت</t>
   </si>
   <si>
+    <t xml:space="preserve">دسته: آموزش برنامه نویسی، آموزش برنامه نویسی وب، آموزش سی شارپ</t>
+  </si>
+  <si>
     <t xml:space="preserve">28 درس</t>
   </si>
   <si>
@@ -241,6 +247,9 @@
     <t xml:space="preserve"> 985 مگابایت</t>
   </si>
   <si>
+    <t xml:space="preserve">دسته: آموزش برنامه نویسی، آموزش جاوا اسکریپت</t>
+  </si>
+  <si>
     <t xml:space="preserve">45 درس</t>
   </si>
   <si>
@@ -274,6 +283,9 @@
     <t xml:space="preserve"> 525 مگابایت</t>
   </si>
   <si>
+    <t xml:space="preserve">دسته: آموزش امنیت شبکه، آموزش پایتون</t>
+  </si>
+  <si>
     <t xml:space="preserve">10 درس</t>
   </si>
   <si>
@@ -307,6 +319,9 @@
     <t xml:space="preserve"> 146 مگابایت</t>
   </si>
   <si>
+    <t xml:space="preserve">دسته: آموزش برنامه نویسی، آموزش وردپرس، ارز دیجیتال و بورس</t>
+  </si>
+  <si>
     <t xml:space="preserve">7 درس</t>
   </si>
   <si>
@@ -337,6 +352,9 @@
     <t xml:space="preserve"> 592 مگابایت</t>
   </si>
   <si>
+    <t xml:space="preserve">دسته: آموزش بازی سازی، آموزش برنامه نویسی، آموزش یونیتی</t>
+  </si>
+  <si>
     <t xml:space="preserve">9 درس</t>
   </si>
   <si>
@@ -370,6 +388,9 @@
     <t xml:space="preserve"> 3/06 گیگابایت</t>
   </si>
   <si>
+    <t xml:space="preserve">دسته: آموزش برنامه نویسی، آموزش وردپرس</t>
+  </si>
+  <si>
     <t xml:space="preserve">27 درس</t>
   </si>
   <si>
@@ -427,6 +448,9 @@
     <t xml:space="preserve"> 5/1 گیگابایت</t>
   </si>
   <si>
+    <t xml:space="preserve">دسته: آموزش پایتون، کلان داده و هوش مصنوعی</t>
+  </si>
+  <si>
     <t xml:space="preserve">127 درس</t>
   </si>
   <si>
@@ -454,6 +478,9 @@
     <t xml:space="preserve"> 990 مگابایت</t>
   </si>
   <si>
+    <t xml:space="preserve">دسته: آموزش برنامه نویسی، آموزش برنامه نویسی وب، آموزش جاوا اسکریپت، آموزش نود جی اس</t>
+  </si>
+  <si>
     <t xml:space="preserve">30 درس</t>
   </si>
   <si>
@@ -481,6 +508,9 @@
     <t xml:space="preserve"> 5/14 گیگابایت</t>
   </si>
   <si>
+    <t xml:space="preserve">دسته: آموزش برنامه نویسی، آموزش برنامه نویسی وب، آموزش جنگو</t>
+  </si>
+  <si>
     <t xml:space="preserve">57 درس</t>
   </si>
   <si>
@@ -514,6 +544,9 @@
     <t xml:space="preserve"> 926 مگابایت</t>
   </si>
   <si>
+    <t xml:space="preserve">دسته: آموزش اینترنت اشیا، آموزش برنامه نویسی</t>
+  </si>
+  <si>
     <t xml:space="preserve">18 درس</t>
   </si>
   <si>
@@ -598,9 +631,6 @@
     <t xml:space="preserve"> 1 گیگابایت</t>
   </si>
   <si>
-    <t xml:space="preserve">آموزش اینترنت اشیا</t>
-  </si>
-  <si>
     <t xml:space="preserve">ما در این دوره به آموزش ساخت دماسنج دیجیتالی با آردوینو می پردازیم. در این دوره قصد داریم از ترکیب چند ماژول و آردوینو یک دماسنج دیجیتالی بسازیم که توانایی اعلام صوتی دما را نیز دارد. در این پروژه از نمایشگر های Nokia 5110، سنسور دما DS18B20 و ماژول های پخش کننده صوتی DFPlayer استفاده شده است. تمامی جزئیات کار با ماژول ها و برنامه نویسی کامل توضیح داده شده و برای هر مبحث به طور کامل سیم بندی انجام شده است.</t>
   </si>
   <si>
@@ -631,6 +661,9 @@
     <t xml:space="preserve"> 1/19 گیگابایت</t>
   </si>
   <si>
+    <t xml:space="preserve">دسته: آموزش برنامه نویسی، آموزش برنامه نویسی وب، آموزش وردپرس</t>
+  </si>
+  <si>
     <t xml:space="preserve">22 درس</t>
   </si>
   <si>
@@ -664,6 +697,9 @@
     <t xml:space="preserve"> 246 مگابایت</t>
   </si>
   <si>
+    <t xml:space="preserve">دسته: آموزش HTML و CSS، آموزش برنامه نویسی، آموزش برنامه نویسی وب، ابزار برنامه نویسی</t>
+  </si>
+  <si>
     <t xml:space="preserve">16 درس</t>
   </si>
   <si>
@@ -688,7 +724,7 @@
     <t xml:space="preserve"> 539 مگابایت</t>
   </si>
   <si>
-    <t xml:space="preserve">سیستم عامل</t>
+    <t xml:space="preserve">دسته: آموزش برنامه نویسی، سیستم عامل</t>
   </si>
   <si>
     <t xml:space="preserve">11 درس</t>
@@ -712,6 +748,9 @@
     <t xml:space="preserve">https://dl.danup.ir/Courses/556645/npm/1.mp4?_=1</t>
   </si>
   <si>
+    <t xml:space="preserve">دسته: آموزش برنامه نویسی، آموزش برنامه نویسی وب، آموزش جاوا اسکریپت، آموزش نود جی اس، ابزار برنامه نویسی</t>
+  </si>
+  <si>
     <t xml:space="preserve">5 درس</t>
   </si>
   <si>
@@ -778,6 +817,9 @@
     <t xml:space="preserve"> 1/35 گیگابایت</t>
   </si>
   <si>
+    <t xml:space="preserve">دسته: آموزش برنامه نویسی، آموزش برنامه نویسی وب، آموزش بوت استرپ</t>
+  </si>
+  <si>
     <t xml:space="preserve">26 درس</t>
   </si>
   <si>
@@ -829,6 +871,9 @@
     <t xml:space="preserve">https://dl.danup.ir/Courses/556645/Java/1.mp4?_=1</t>
   </si>
   <si>
+    <t xml:space="preserve">دسته: آموزش برنامه نویسی، آموزش برنامه نویسی موبایل، آموزش برنامه نویسی وب، آموزش جاوا</t>
+  </si>
+  <si>
     <t xml:space="preserve">32 درس</t>
   </si>
   <si>
@@ -853,6 +898,9 @@
     <t xml:space="preserve"> 314 مگابایت</t>
   </si>
   <si>
+    <t xml:space="preserve">دسته: آموزش برنامه نویسی، آموزش برنامه نویسی وب، جی کوئری</t>
+  </si>
+  <si>
     <t xml:space="preserve">ما در این دوره به آموزش جامع جی کوئری JQuery می پردازیم. ما در این دوره آموزشی کلیه آموزش ها را از نقطه صفر شروع می کنیم و تمامی نکات ریز و درشت این کتابخانه مفید و کاربردی را به شما می آموزیم. این دوره با استفاده از مثال های بسیار متنوع آموزش داده شده است و شما می توانید پس از گذراندن این دوره به یک متخصص جی کوئری تبدیل شوید.</t>
   </si>
   <si>
@@ -901,7 +949,7 @@
     <t xml:space="preserve"> 468 مگابایت</t>
   </si>
   <si>
-    <t xml:space="preserve">توسعه دیتابیس</t>
+    <t xml:space="preserve">دسته: Mysql، آموزش برنامه نویسی، توسعه دیتابیس</t>
   </si>
   <si>
     <t xml:space="preserve">14 درس</t>
@@ -934,6 +982,9 @@
     <t xml:space="preserve"> 868 مگابایت</t>
   </si>
   <si>
+    <t xml:space="preserve">دسته: آموزش PHP، آموزش برنامه نویسی، آموزش برنامه نویسی وب</t>
+  </si>
+  <si>
     <t xml:space="preserve">ما در این دوره به آموزش جامع پی اچ پی PHP می پردازیم. ما در این دوره از نقطه صفر یعنی مراحل نصب و اجرای PHP تا نقطه 100 یعنی پیشرفته ترین بخش های کار با پایگاه داده و آموزش کامل شی گرایی در PHP و… با شما همراه هستیم و تمامی مباحث مورد نیاز برای تسلط کامل به PHP را به شما آموزش می دهیم. ما در این مجموعه بهترین، ساده ترین و پیشرفته ترین متدهای طراحی وب داینامیک را به شما آموزش می دهیم تا به طور کامل بر زبان PHP مسلط شوید.</t>
   </si>
   <si>
@@ -985,7 +1036,7 @@
     <t xml:space="preserve"> 184 مگابایت</t>
   </si>
   <si>
-    <t xml:space="preserve">ابزار برنامه نویسی</t>
+    <t xml:space="preserve">دسته: آموزش برنامه نویسی، آموزش برنامه نویسی وب، ابزار برنامه نویسی، بوت استرپ استودیو</t>
   </si>
   <si>
     <t xml:space="preserve">https://danup.ir/courses/laravel-full-course/</t>
@@ -1006,6 +1057,9 @@
     <t xml:space="preserve"> 812 مگابایت</t>
   </si>
   <si>
+    <t xml:space="preserve">دسته: آموزش برنامه نویسی، آموزش برنامه نویسی وب، آموزش لاراول</t>
+  </si>
+  <si>
     <t xml:space="preserve">ما در این دوره به آموزش جامع لاراول Laravel می پردازیم. ما در این دوره به صورت کامل و از صفر تا صد فریم ورک لاراول را به شما آموزش می دهیم و پس از اتمام دوره شما می توانید پروژه های مختلف را به کمک این فریم ورک انجام دهید. ما در این دوره آخرین نسخه لاراول را آموزش داده ایم.</t>
   </si>
   <si>
@@ -1030,7 +1084,7 @@
     <t xml:space="preserve"> 2/67 گیگابایت</t>
   </si>
   <si>
-    <t xml:space="preserve">آموزش برنامه نویسی موبایل</t>
+    <t xml:space="preserve">دسته: آموزش برنامه نویسی، آموزش برنامه نویسی اندروید، آموزش برنامه نویسی موبایل</t>
   </si>
   <si>
     <t xml:space="preserve">ما در این دوره به آموزش جامع برنامه نویسی اندروید می پردازیم. ما در این دوره اصول طراحی اپلیکیشن های تحت اندروید و نحوه پیاده سازی آنها را به طور کامل به شما آموزش می دهیم تا بلافاصله پس از اتمام دوره بتوانید شروع به کسب درآمد در حوزه تولید اپلیکیشن های موبایل کنید.</t>
@@ -1054,6 +1108,9 @@
     <t xml:space="preserve"> 342 مگابایت</t>
   </si>
   <si>
+    <t xml:space="preserve">دسته: آموزش برنامه نویسی، آموزش برنامه نویسی وب، آموزش جاوا اسکریپت، ابزار برنامه نویسی، ری اکت، ریداکس</t>
+  </si>
+  <si>
     <t xml:space="preserve">ما در این دوره به آموزش جامع ریداکس Redux می پردازیم. ما در این دوره ابتدا تمامی مفاهیم کتابخانه Redux را به شما آموزش می دهیم و سپس با انجام یک پروژه در درک کامل این مفاهیم به شما کمک می کنیم.</t>
   </si>
   <si>
@@ -1073,6 +1130,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 1/10 گیگابایت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دسته: آموزش برنامه نویسی، آموزش برنامه نویسی اندروید، آموزش برنامه نویسی موبایل، آموزش برنامه نویسی وب، آموزش جاوا</t>
   </si>
   <si>
     <t xml:space="preserve">ما در این دوره به آموزش پرداخت درون برنامه‌ ای تمام مارکت های اندروید می پردازیم. ما در این دوره علاوه بر آموزش پرداخت درون برنامه ای، مار با پنل توسعه دهندگان اندروید را نیز آموزش داده ایم. علاوه بر این ما در این دوره به مباحث امنیتی برای امن سازی پرداخت درون برنامه ای در تمام مارکت ها نیز پرداخته ایم.</t>
@@ -1085,7 +1145,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1115,6 +1175,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u val="single"/>
@@ -1173,25 +1240,45 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1214,94 +1301,94 @@
   </sheetPr>
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="24.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.265625" defaultRowHeight="24.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="66.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="61.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.48"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="57.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="62.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="10.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.49"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="27.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="14.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="11.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="194.81"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="20" style="1" width="8.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="65.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="54.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.93"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="55.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="73.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="20.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="28.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="70.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="12.68"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="8.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="207.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="20" style="1" width="8.26"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1319,19 +1406,20 @@
       <c r="H2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="M2" s="8"/>
       <c r="N2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="7" t="s">
         <v>28</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1348,10 +1436,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1369,10 +1457,10 @@
       <c r="H3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="7" t="s">
         <v>40</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -1381,7 +1469,7 @@
       <c r="N3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="7" t="s">
         <v>28</v>
       </c>
       <c r="P3" s="1" t="s">
@@ -1398,10 +1486,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1419,10 +1507,10 @@
       <c r="H4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -1431,478 +1519,481 @@
       <c r="N4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="7" t="s">
         <v>28</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>55</v>
+      <c r="B5" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="I5" s="7" t="s">
         <v>61</v>
       </c>
+      <c r="J5" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="L5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>28</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>65</v>
+      <c r="B6" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="I6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="L6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>28</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>75</v>
+      <c r="B7" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>28</v>
+        <v>86</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>86</v>
+      <c r="B8" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>28</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>97</v>
+      <c r="B9" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S9" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>122</v>
+      <c r="I11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="O11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>28</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>126</v>
+      <c r="B12" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O12" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>28</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>137</v>
+      <c r="B13" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>142</v>
+        <v>71</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="O13" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>28</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>146</v>
+      <c r="B14" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>22</v>
@@ -1910,1173 +2001,1176 @@
       <c r="H14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>151</v>
+      <c r="I14" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="O14" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>28</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>31</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>155</v>
+      <c r="B15" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>162</v>
+        <v>170</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>28</v>
+        <v>173</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>166</v>
+      <c r="B16" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="O16" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>28</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q16" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="R16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S16" s="1" t="s">
+      <c r="Q18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q36" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="R35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="O36" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="R36" s="1" t="s">
         <v>31</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="4" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>345</v>
+      <c r="B37" s="6" t="s">
+        <v>364</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>349</v>
+        <v>71</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>368</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="O37" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>28</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="R37" s="1" t="s">
         <v>31</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
